--- a/inputs/room_assignments.xlsx
+++ b/inputs/room_assignments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/victorprieto/Desktop/code/cornerstone/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FBF9F-22F2-8E45-A934-A8CD0A588FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D16344B-CC37-6C47-AD52-17EE34FB7DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2440" yWindow="500" windowWidth="28260" windowHeight="17440" xr2:uid="{0A1BA892-8BE7-8E47-8245-E9838AB8CE49}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28260" windowHeight="17440" xr2:uid="{0A1BA892-8BE7-8E47-8245-E9838AB8CE49}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="111">
   <si>
     <t>Anfinsen</t>
   </si>
@@ -291,13 +291,88 @@
   </si>
   <si>
     <t>Grand BR G</t>
+  </si>
+  <si>
+    <t>super bracket</t>
+  </si>
+  <si>
+    <t>super playoff</t>
+  </si>
+  <si>
+    <t>9th-16th</t>
+  </si>
+  <si>
+    <t>17-28A</t>
+  </si>
+  <si>
+    <t>29th-32nd</t>
+  </si>
+  <si>
+    <t>17-28B</t>
+  </si>
+  <si>
+    <t>33rd-36th</t>
+  </si>
+  <si>
+    <t>37th-40th</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>41st-44th</t>
+  </si>
+  <si>
+    <t>45th-48th</t>
+  </si>
+  <si>
+    <t>49th-52nd</t>
+  </si>
+  <si>
+    <t>53rd-56th</t>
+  </si>
+  <si>
+    <t>57th-60th</t>
+  </si>
+  <si>
+    <t>61st-64th</t>
+  </si>
+  <si>
+    <t>65th-68th</t>
+  </si>
+  <si>
+    <t>69th-72nd</t>
+  </si>
+  <si>
+    <t>73rd-76th</t>
+  </si>
+  <si>
+    <t>77th-80th</t>
+  </si>
+  <si>
+    <t>81st-84th</t>
+  </si>
+  <si>
+    <t>85th-88th</t>
+  </si>
+  <si>
+    <t>89th-92nd</t>
+  </si>
+  <si>
+    <t>93rd-96th</t>
+  </si>
+  <si>
+    <t>Room 1131</t>
+  </si>
+  <si>
+    <t>Championship</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -314,6 +389,12 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="ArialMT"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -337,7 +418,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -346,6 +427,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,19 +743,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4C90F48-5B40-B045-857C-168D820BE3E6}">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="25.21875" customWidth="1"/>
     <col min="2" max="6" width="19.21875" customWidth="1"/>
+    <col min="7" max="7" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24">
+    <row r="1" spans="1:7" ht="24">
       <c r="A1" s="1" t="s">
         <v>65</v>
       </c>
@@ -688,9 +772,14 @@
       <c r="E1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" ht="24">
+      <c r="F1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="24">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
@@ -706,9 +795,14 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="24">
+      <c r="F2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="24">
       <c r="A3" s="2" t="s">
         <v>81</v>
       </c>
@@ -724,9 +818,14 @@
       <c r="E3" s="2">
         <v>2</v>
       </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="24">
+      <c r="F3" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24">
       <c r="A4" s="2" t="s">
         <v>82</v>
       </c>
@@ -742,9 +841,14 @@
       <c r="E4" s="2">
         <v>3</v>
       </c>
-      <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="24">
+      <c r="F4" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="24">
       <c r="A5" s="2" t="s">
         <v>83</v>
       </c>
@@ -760,9 +864,14 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="24">
+      <c r="F5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="24">
       <c r="A6" s="2" t="s">
         <v>84</v>
       </c>
@@ -778,9 +887,14 @@
       <c r="E6" s="2">
         <v>2</v>
       </c>
-      <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="24">
+      <c r="F6" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="24">
       <c r="A7" s="2" t="s">
         <v>85</v>
       </c>
@@ -796,9 +910,14 @@
       <c r="E7" s="2">
         <v>3</v>
       </c>
-      <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="24">
+      <c r="F7" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="24">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
@@ -814,9 +933,14 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="24">
+      <c r="F8" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="24">
       <c r="A9" s="3" t="s">
         <v>34</v>
       </c>
@@ -832,9 +956,14 @@
       <c r="E9" s="2">
         <v>2</v>
       </c>
-      <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="24">
+      <c r="F9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="24">
       <c r="A10" s="3" t="s">
         <v>50</v>
       </c>
@@ -850,9 +979,14 @@
       <c r="E10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" ht="24">
+      <c r="F10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="24">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -868,9 +1002,14 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" ht="24">
+      <c r="F11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="24">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -886,9 +1025,14 @@
       <c r="E12" s="2">
         <v>2</v>
       </c>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="24">
+      <c r="F12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="24">
       <c r="A13" s="3" t="s">
         <v>51</v>
       </c>
@@ -904,9 +1048,14 @@
       <c r="E13" s="2">
         <v>3</v>
       </c>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="24">
+      <c r="F13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="24">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
@@ -922,9 +1071,14 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" ht="24">
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24">
       <c r="A15" s="3" t="s">
         <v>36</v>
       </c>
@@ -940,9 +1094,14 @@
       <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="24">
+      <c r="F15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -958,9 +1117,14 @@
       <c r="E16" s="2">
         <v>3</v>
       </c>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="24">
+      <c r="F16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="24">
       <c r="A17" s="2" t="s">
         <v>21</v>
       </c>
@@ -976,9 +1140,14 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" ht="24">
+      <c r="F17" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="24">
       <c r="A18" s="3" t="s">
         <v>37</v>
       </c>
@@ -994,9 +1163,14 @@
       <c r="E18" s="2">
         <v>2</v>
       </c>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="24">
+      <c r="F18" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="24">
       <c r="A19" s="3" t="s">
         <v>53</v>
       </c>
@@ -1012,9 +1186,14 @@
       <c r="E19" s="2">
         <v>3</v>
       </c>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="24">
+      <c r="F19" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24">
       <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
@@ -1030,9 +1209,14 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" ht="24">
+      <c r="F20" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="24">
       <c r="A21" s="3" t="s">
         <v>38</v>
       </c>
@@ -1048,9 +1232,14 @@
       <c r="E21" s="2">
         <v>2</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="24">
+      <c r="F21" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G21" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="24">
       <c r="A22" s="3" t="s">
         <v>54</v>
       </c>
@@ -1066,9 +1255,14 @@
       <c r="E22" s="2">
         <v>3</v>
       </c>
-      <c r="F22" s="3"/>
-    </row>
-    <row r="23" spans="1:6" ht="24">
+      <c r="F22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="24">
       <c r="A23" s="2" t="s">
         <v>23</v>
       </c>
@@ -1084,9 +1278,14 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-      <c r="F23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" ht="24">
+      <c r="F23" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="24">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1102,9 +1301,14 @@
       <c r="E24" s="2">
         <v>2</v>
       </c>
-      <c r="F24" s="3"/>
-    </row>
-    <row r="25" spans="1:6" ht="24">
+      <c r="F24" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="24">
       <c r="A25" s="3" t="s">
         <v>55</v>
       </c>
@@ -1120,9 +1324,14 @@
       <c r="E25" s="2">
         <v>3</v>
       </c>
-      <c r="F25" s="3"/>
-    </row>
-    <row r="26" spans="1:6" ht="24">
+      <c r="F25" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24">
       <c r="A26" s="2" t="s">
         <v>24</v>
       </c>
@@ -1138,9 +1347,14 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-      <c r="F26" s="2"/>
-    </row>
-    <row r="27" spans="1:6" ht="24">
+      <c r="F26" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="24">
       <c r="A27" s="3" t="s">
         <v>40</v>
       </c>
@@ -1156,9 +1370,14 @@
       <c r="E27" s="2">
         <v>2</v>
       </c>
-      <c r="F27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" ht="24">
+      <c r="F27" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="24">
       <c r="A28" s="3" t="s">
         <v>56</v>
       </c>
@@ -1174,9 +1393,14 @@
       <c r="E28" s="2">
         <v>3</v>
       </c>
-      <c r="F28" s="3"/>
-    </row>
-    <row r="29" spans="1:6" ht="24">
+      <c r="F28" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="24">
       <c r="A29" s="2" t="s">
         <v>25</v>
       </c>
@@ -1192,9 +1416,14 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-      <c r="F29" s="2"/>
-    </row>
-    <row r="30" spans="1:6" ht="24">
+      <c r="F29" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="24">
       <c r="A30" s="3" t="s">
         <v>41</v>
       </c>
@@ -1210,9 +1439,14 @@
       <c r="E30" s="2">
         <v>2</v>
       </c>
-      <c r="F30" s="3"/>
-    </row>
-    <row r="31" spans="1:6" ht="24">
+      <c r="F30" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="24">
       <c r="A31" s="3" t="s">
         <v>57</v>
       </c>
@@ -1228,9 +1462,14 @@
       <c r="E31" s="2">
         <v>3</v>
       </c>
-      <c r="F31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" ht="24">
+      <c r="F31" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="24">
       <c r="A32" s="2" t="s">
         <v>26</v>
       </c>
@@ -1246,9 +1485,14 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="2"/>
-    </row>
-    <row r="33" spans="1:6" ht="24">
+      <c r="F32" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="24">
       <c r="A33" s="3" t="s">
         <v>42</v>
       </c>
@@ -1264,9 +1508,14 @@
       <c r="E33" s="2">
         <v>2</v>
       </c>
-      <c r="F33" s="3"/>
-    </row>
-    <row r="34" spans="1:6" ht="24">
+      <c r="F33" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="24">
       <c r="A34" s="3" t="s">
         <v>58</v>
       </c>
@@ -1282,9 +1531,14 @@
       <c r="E34" s="2">
         <v>3</v>
       </c>
-      <c r="F34" s="3"/>
-    </row>
-    <row r="35" spans="1:6" ht="24">
+      <c r="F34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="24">
       <c r="A35" s="2" t="s">
         <v>27</v>
       </c>
@@ -1300,9 +1554,14 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" ht="24">
+      <c r="F35" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="3" t="s">
         <v>43</v>
       </c>
@@ -1318,9 +1577,14 @@
       <c r="E36" s="2">
         <v>2</v>
       </c>
-      <c r="F36" s="3"/>
-    </row>
-    <row r="37" spans="1:6" ht="24">
+      <c r="F36" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="24">
       <c r="A37" s="3" t="s">
         <v>59</v>
       </c>
@@ -1336,9 +1600,14 @@
       <c r="E37" s="2">
         <v>3</v>
       </c>
-      <c r="F37" s="3"/>
-    </row>
-    <row r="38" spans="1:6" ht="24">
+      <c r="F37" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="24">
       <c r="A38" s="2" t="s">
         <v>28</v>
       </c>
@@ -1354,9 +1623,14 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" ht="24">
+      <c r="F38" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="24">
       <c r="A39" s="3" t="s">
         <v>44</v>
       </c>
@@ -1372,9 +1646,14 @@
       <c r="E39" s="2">
         <v>2</v>
       </c>
-      <c r="F39" s="3"/>
-    </row>
-    <row r="40" spans="1:6" ht="24">
+      <c r="F39" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="24">
       <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
@@ -1390,9 +1669,14 @@
       <c r="E40" s="2">
         <v>3</v>
       </c>
-      <c r="F40" s="3"/>
-    </row>
-    <row r="41" spans="1:6" ht="24">
+      <c r="F40" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="24">
       <c r="A41" s="2" t="s">
         <v>29</v>
       </c>
@@ -1408,9 +1692,14 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-      <c r="F41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" ht="24">
+      <c r="F41" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="24">
       <c r="A42" s="3" t="s">
         <v>45</v>
       </c>
@@ -1426,11 +1715,16 @@
       <c r="E42" s="2">
         <v>2</v>
       </c>
-      <c r="F42" s="3"/>
-    </row>
-    <row r="43" spans="1:6" ht="24">
+      <c r="F42" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="24">
       <c r="A43" s="3" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>76</v>
@@ -1444,9 +1738,14 @@
       <c r="E43" s="2">
         <v>3</v>
       </c>
-      <c r="F43" s="3"/>
-    </row>
-    <row r="44" spans="1:6" ht="24">
+      <c r="F43" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="24">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
@@ -1462,9 +1761,14 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" ht="24">
+      <c r="F44" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="24">
       <c r="A45" s="3" t="s">
         <v>46</v>
       </c>
@@ -1480,9 +1784,14 @@
       <c r="E45" s="2">
         <v>2</v>
       </c>
-      <c r="F45" s="3"/>
-    </row>
-    <row r="46" spans="1:6" ht="24">
+      <c r="F45" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="24">
       <c r="A46" s="3" t="s">
         <v>62</v>
       </c>
@@ -1498,9 +1807,14 @@
       <c r="E46" s="2">
         <v>3</v>
       </c>
-      <c r="F46" s="3"/>
-    </row>
-    <row r="47" spans="1:6" ht="24">
+      <c r="F46" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" ht="24">
       <c r="A47" s="2" t="s">
         <v>31</v>
       </c>
@@ -1516,9 +1830,14 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-      <c r="F47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" ht="24">
+      <c r="F47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="24">
       <c r="A48" s="3" t="s">
         <v>47</v>
       </c>
@@ -1534,9 +1853,14 @@
       <c r="E48" s="2">
         <v>2</v>
       </c>
-      <c r="F48" s="3"/>
-    </row>
-    <row r="49" spans="1:6" ht="24">
+      <c r="F48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="24">
       <c r="A49" s="3" t="s">
         <v>63</v>
       </c>
@@ -1552,9 +1876,40 @@
       <c r="E49" s="2">
         <v>3</v>
       </c>
-      <c r="F49" s="3"/>
+      <c r="F49" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="24">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
+        <v>94</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="G50">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F23:F50">
+    <sortCondition ref="F23:F50"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
